--- a/models/interpretations/entities_analysis/missed_trues.xlsx
+++ b/models/interpretations/entities_analysis/missed_trues.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/prl222/OneDrive - The Open University/Projects/hate-speech-identities/models/interpretations/entities_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{94CD22C6-5A6F-5741-8F75-5296DFC17F8A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C03E9F16-DC50-8E43-B989-C3ADA680696A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="2260" windowWidth="28040" windowHeight="17440"/>
+    <workbookView xWindow="3900" yWindow="2260" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="missed_trues" sheetId="1" r:id="rId1"/>
@@ -28,18 +28,9 @@
     <t>comment_id</t>
   </si>
   <si>
-    <t>logits_y_trues</t>
-  </si>
-  <si>
     <t>true_sample_logits</t>
   </si>
   <si>
-    <t>logits_pos_matches</t>
-  </si>
-  <si>
-    <t>logits_neg_matches</t>
-  </si>
-  <si>
     <t>trues</t>
   </si>
   <si>
@@ -518,12 +509,21 @@
   </si>
   <si>
     <t>faggot;movie;cunt;bitch;whore;fuck</t>
+  </si>
+  <si>
+    <t>HybridLR$_{h}$_y_trues</t>
+  </si>
+  <si>
+    <t>HybridLR$_{h}$_pos_matches</t>
+  </si>
+  <si>
+    <t>HybridLR$_{h}$_neg_matches</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1357,10 +1357,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -1372,30 +1374,30 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B2">
         <v>12703</v>
@@ -1407,24 +1409,24 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
         <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>16834</v>
@@ -1436,21 +1438,21 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3" t="s">
         <v>12</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>5361</v>
@@ -1462,21 +1464,21 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>17691</v>
@@ -1488,24 +1490,24 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B6">
         <v>23954</v>
@@ -1517,24 +1519,24 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>25822</v>
@@ -1546,21 +1548,21 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G7" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H7">
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>3616</v>
@@ -1572,24 +1574,24 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G8" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B9">
         <v>7682</v>
@@ -1601,21 +1603,21 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G9" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B10">
         <v>883</v>
@@ -1627,24 +1629,24 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G10" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H10">
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B11">
         <v>16579</v>
@@ -1656,24 +1658,24 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H11">
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B12">
         <v>23792</v>
@@ -1685,24 +1687,24 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G12" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H12">
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B13">
         <v>3196</v>
@@ -1714,21 +1716,21 @@
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G13" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H13">
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B14">
         <v>18198</v>
@@ -1740,21 +1742,21 @@
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G14" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H14">
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B15">
         <v>26369</v>
@@ -1766,21 +1768,21 @@
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G15" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H15">
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B16">
         <v>24031</v>
@@ -1792,21 +1794,21 @@
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H16">
         <v>1</v>
       </c>
       <c r="I16" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B17">
         <v>27147</v>
@@ -1818,21 +1820,21 @@
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G17" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H17">
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B18">
         <v>2940</v>
@@ -1844,21 +1846,21 @@
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G18" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H18">
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B19">
         <v>12172</v>
@@ -1870,21 +1872,21 @@
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G19" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H19">
         <v>1</v>
       </c>
       <c r="I19" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B20">
         <v>25630</v>
@@ -1896,21 +1898,21 @@
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G20" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H20">
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B21">
         <v>14215</v>
@@ -1922,21 +1924,21 @@
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G21" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H21">
         <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B22">
         <v>19393</v>
@@ -1948,21 +1950,21 @@
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G22" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H22">
         <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B23">
         <v>12466</v>
@@ -1974,21 +1976,21 @@
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G23" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H23">
         <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B24">
         <v>12598</v>
@@ -2000,24 +2002,24 @@
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F24" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G24" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H24">
         <v>1</v>
       </c>
       <c r="I24" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B25">
         <v>20995</v>
@@ -2029,24 +2031,24 @@
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F25" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G25" t="s">
+        <v>9</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25" t="s">
         <v>12</v>
-      </c>
-      <c r="H25">
-        <v>1</v>
-      </c>
-      <c r="I25" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B26">
         <v>17425</v>
@@ -2058,21 +2060,21 @@
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G26" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H26">
         <v>1</v>
       </c>
       <c r="I26" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B27">
         <v>33464</v>
@@ -2084,24 +2086,24 @@
         <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F27" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G27" t="s">
+        <v>9</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27" t="s">
         <v>12</v>
-      </c>
-      <c r="H27">
-        <v>1</v>
-      </c>
-      <c r="I27" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B28">
         <v>29627</v>
@@ -2113,21 +2115,21 @@
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G28" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H28">
         <v>1</v>
       </c>
       <c r="I28" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B29">
         <v>2769</v>
@@ -2139,21 +2141,21 @@
         <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G29" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H29">
         <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B30">
         <v>3077</v>
@@ -2165,21 +2167,21 @@
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G30" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H30">
         <v>1</v>
       </c>
       <c r="I30" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B31">
         <v>3075</v>
@@ -2191,24 +2193,24 @@
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F31" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G31" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H31">
         <v>1</v>
       </c>
       <c r="I31" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B32">
         <v>25465</v>
@@ -2220,24 +2222,24 @@
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F32" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G32" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H32">
         <v>1</v>
       </c>
       <c r="I32" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B33">
         <v>21010</v>
@@ -2249,24 +2251,24 @@
         <v>1</v>
       </c>
       <c r="E33" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F33" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G33" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H33">
         <v>1</v>
       </c>
       <c r="I33" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B34">
         <v>26757</v>
@@ -2278,24 +2280,24 @@
         <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G34" t="s">
+        <v>9</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34" t="s">
         <v>12</v>
-      </c>
-      <c r="H34">
-        <v>1</v>
-      </c>
-      <c r="I34" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B35">
         <v>21140</v>
@@ -2307,21 +2309,21 @@
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G35" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H35">
         <v>1</v>
       </c>
       <c r="I35" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B36">
         <v>3338</v>
@@ -2333,53 +2335,53 @@
         <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F36" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G36" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H36">
         <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
+        <v>65</v>
+      </c>
+      <c r="B37" t="s">
+        <v>66</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37" t="s">
+        <v>67</v>
+      </c>
+      <c r="G37" t="s">
+        <v>9</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="I37" t="s">
         <v>68</v>
-      </c>
-      <c r="B37" t="s">
-        <v>69</v>
-      </c>
-      <c r="C37">
-        <v>1</v>
-      </c>
-      <c r="D37">
-        <v>1</v>
-      </c>
-      <c r="E37" t="s">
-        <v>70</v>
-      </c>
-      <c r="G37" t="s">
-        <v>12</v>
-      </c>
-      <c r="H37">
-        <v>1</v>
-      </c>
-      <c r="I37" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B38" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -2388,27 +2390,27 @@
         <v>1</v>
       </c>
       <c r="E38" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F38" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G38" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H38">
         <v>1</v>
       </c>
       <c r="I38" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B39" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -2417,24 +2419,24 @@
         <v>1</v>
       </c>
       <c r="E39" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G39" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H39">
         <v>1</v>
       </c>
       <c r="I39" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B40" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -2443,24 +2445,24 @@
         <v>1</v>
       </c>
       <c r="E40" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G40" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H40">
         <v>1</v>
       </c>
       <c r="I40" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B41" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -2469,24 +2471,24 @@
         <v>1</v>
       </c>
       <c r="E41" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G41" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H41">
         <v>1</v>
       </c>
       <c r="I41" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B42" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -2495,24 +2497,24 @@
         <v>1</v>
       </c>
       <c r="E42" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G42" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H42">
         <v>1</v>
       </c>
       <c r="I42" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B43" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -2521,24 +2523,24 @@
         <v>1</v>
       </c>
       <c r="E43" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G43" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H43">
         <v>1</v>
       </c>
       <c r="I43" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B44" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -2547,24 +2549,24 @@
         <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G44" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H44">
         <v>1</v>
       </c>
       <c r="I44" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B45" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -2573,24 +2575,24 @@
         <v>1</v>
       </c>
       <c r="E45" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G45" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H45">
         <v>1</v>
       </c>
       <c r="I45" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B46" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -2599,24 +2601,24 @@
         <v>1</v>
       </c>
       <c r="E46" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G46" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H46">
         <v>1</v>
       </c>
       <c r="I46" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B47" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -2625,27 +2627,27 @@
         <v>1</v>
       </c>
       <c r="E47" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F47" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G47" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H47">
         <v>1</v>
       </c>
       <c r="I47" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B48" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -2654,27 +2656,27 @@
         <v>1</v>
       </c>
       <c r="E48" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F48" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G48" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H48">
         <v>1</v>
       </c>
       <c r="I48" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B49" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -2683,24 +2685,24 @@
         <v>1</v>
       </c>
       <c r="E49" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G49" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H49">
         <v>1</v>
       </c>
       <c r="I49" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B50" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -2709,24 +2711,24 @@
         <v>1</v>
       </c>
       <c r="E50" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G50" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H50">
         <v>1</v>
       </c>
       <c r="I50" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B51" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -2735,24 +2737,24 @@
         <v>1</v>
       </c>
       <c r="E51" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G51" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H51">
         <v>1</v>
       </c>
       <c r="I51" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B52" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -2761,24 +2763,24 @@
         <v>1</v>
       </c>
       <c r="E52" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G52" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H52">
         <v>1</v>
       </c>
       <c r="I52" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B53" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -2787,27 +2789,27 @@
         <v>1</v>
       </c>
       <c r="E53" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F53" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G53" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H53">
         <v>1</v>
       </c>
       <c r="I53" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B54" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -2816,27 +2818,27 @@
         <v>1</v>
       </c>
       <c r="E54" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F54" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G54" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H54">
         <v>1</v>
       </c>
       <c r="I54" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B55" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -2845,24 +2847,24 @@
         <v>1</v>
       </c>
       <c r="E55" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G55" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H55">
         <v>1</v>
       </c>
       <c r="I55" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B56" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -2871,27 +2873,27 @@
         <v>1</v>
       </c>
       <c r="E56" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F56" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G56" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H56">
         <v>1</v>
       </c>
       <c r="I56" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B57" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -2900,24 +2902,24 @@
         <v>1</v>
       </c>
       <c r="E57" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G57" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H57">
         <v>1</v>
       </c>
       <c r="I57" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B58" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -2926,27 +2928,27 @@
         <v>1</v>
       </c>
       <c r="E58" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F58" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G58" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H58">
         <v>1</v>
       </c>
       <c r="I58" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B59" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -2955,27 +2957,27 @@
         <v>1</v>
       </c>
       <c r="E59" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F59" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G59" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H59">
         <v>1</v>
       </c>
       <c r="I59" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B60" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -2984,24 +2986,24 @@
         <v>1</v>
       </c>
       <c r="E60" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G60" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H60">
         <v>1</v>
       </c>
       <c r="I60" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B61" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -3010,24 +3012,24 @@
         <v>1</v>
       </c>
       <c r="E61" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G61" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H61">
         <v>1</v>
       </c>
       <c r="I61" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B62" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -3036,24 +3038,24 @@
         <v>1</v>
       </c>
       <c r="E62" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G62" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H62">
         <v>1</v>
       </c>
       <c r="I62" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B63" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -3062,24 +3064,24 @@
         <v>1</v>
       </c>
       <c r="E63" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G63" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H63">
         <v>1</v>
       </c>
       <c r="I63" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B64" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -3088,24 +3090,24 @@
         <v>1</v>
       </c>
       <c r="E64" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G64" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H64">
         <v>1</v>
       </c>
       <c r="I64" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B65" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -3114,24 +3116,24 @@
         <v>1</v>
       </c>
       <c r="E65" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G65" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H65">
         <v>1</v>
       </c>
       <c r="I65" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -3140,24 +3142,24 @@
         <v>1</v>
       </c>
       <c r="E66" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G66" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H66">
         <v>1</v>
       </c>
       <c r="I66" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -3166,24 +3168,24 @@
         <v>1</v>
       </c>
       <c r="E67" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G67" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H67">
         <v>1</v>
       </c>
       <c r="I67" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B68" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -3192,24 +3194,24 @@
         <v>1</v>
       </c>
       <c r="E68" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G68" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H68">
         <v>1</v>
       </c>
       <c r="I68" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B69" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -3218,27 +3220,27 @@
         <v>1</v>
       </c>
       <c r="E69" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F69" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G69" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H69">
         <v>1</v>
       </c>
       <c r="I69" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B70" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C70">
         <v>1</v>
@@ -3247,24 +3249,24 @@
         <v>1</v>
       </c>
       <c r="E70" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G70" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H70">
         <v>1</v>
       </c>
       <c r="I70" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B71" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -3273,24 +3275,24 @@
         <v>1</v>
       </c>
       <c r="E71" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G71" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H71">
         <v>1</v>
       </c>
       <c r="I71" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B72" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -3299,24 +3301,24 @@
         <v>1</v>
       </c>
       <c r="E72" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G72" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H72">
         <v>1</v>
       </c>
       <c r="I72" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B73" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -3325,24 +3327,24 @@
         <v>1</v>
       </c>
       <c r="E73" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G73" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H73">
         <v>1</v>
       </c>
       <c r="I73" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B74" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -3351,27 +3353,27 @@
         <v>1</v>
       </c>
       <c r="E74" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F74" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G74" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H74">
         <v>1</v>
       </c>
       <c r="I74" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B75" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -3380,24 +3382,24 @@
         <v>1</v>
       </c>
       <c r="E75" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G75" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H75">
         <v>1</v>
       </c>
       <c r="I75" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B76" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -3406,24 +3408,24 @@
         <v>1</v>
       </c>
       <c r="E76" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G76" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H76">
         <v>1</v>
       </c>
       <c r="I76" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B77" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -3432,27 +3434,27 @@
         <v>1</v>
       </c>
       <c r="E77" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F77" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G77" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H77">
         <v>1</v>
       </c>
       <c r="I77" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B78" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C78">
         <v>1</v>
@@ -3461,27 +3463,27 @@
         <v>1</v>
       </c>
       <c r="E78" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F78" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G78" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H78">
         <v>1</v>
       </c>
       <c r="I78" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B79" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -3490,27 +3492,27 @@
         <v>1</v>
       </c>
       <c r="E79" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F79" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G79" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H79">
         <v>1</v>
       </c>
       <c r="I79" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B80" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -3519,27 +3521,27 @@
         <v>1</v>
       </c>
       <c r="E80" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F80" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G80" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H80">
         <v>1</v>
       </c>
       <c r="I80" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B81" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -3548,27 +3550,27 @@
         <v>1</v>
       </c>
       <c r="E81" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F81" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G81" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H81">
         <v>1</v>
       </c>
       <c r="I81" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B82" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -3577,24 +3579,24 @@
         <v>1</v>
       </c>
       <c r="E82" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G82" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H82">
         <v>1</v>
       </c>
       <c r="I82" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B83" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -3603,16 +3605,16 @@
         <v>1</v>
       </c>
       <c r="E83" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G83" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H83">
         <v>1</v>
       </c>
       <c r="I83" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
